--- a/output/Materials.xlsx
+++ b/output/Materials.xlsx
@@ -8,32 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abma\Desktop\generate cost\generate-report\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628420C3-C041-45FF-8F60-8493EE8C6612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9487C6-9432-4770-9B2B-FD7B4B9C6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="1764" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>Types</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
     <t>Sandwichelement - 480mm</t>
   </si>
   <si>
@@ -64,17 +67,146 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>Written Uint</t>
+  </si>
+  <si>
+    <t>lbm</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Price per unit</t>
+  </si>
+  <si>
+    <t>Hours per unit</t>
+  </si>
+  <si>
+    <t>2232x1812</t>
+  </si>
+  <si>
+    <t>2232x1465</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>2172x1212</t>
+  </si>
+  <si>
+    <t>1020x2100</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Basic wall</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Indvendig enkelt glas dør_DO_MOE</t>
+  </si>
+  <si>
+    <t>Udvendig ét fags vindue med fast karm_WI_moe</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 200mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 220mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 240mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 250mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 300mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 350mm</t>
+  </si>
+  <si>
+    <t>Støbt kældervæg, 500mm</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>221 Betonvæg - 200mm</t>
+  </si>
+  <si>
+    <t>221 Betonvæg - 250mm</t>
+  </si>
+  <si>
+    <t>221 Betonvæg - 300mm</t>
+  </si>
+  <si>
+    <t>221 Betonvæg - 350mm</t>
+  </si>
+  <si>
+    <t>In-Situvæg - 220mm</t>
+  </si>
+  <si>
+    <t>In-Situvæg - 240mm</t>
+  </si>
+  <si>
+    <t>In-Situvæg - 250mm</t>
+  </si>
+  <si>
+    <t>312 Vinduer, Træ-Alu Fast Brystn:</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 985x 3500</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1092x 3500, Træhus</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1350 x 3500, Træhus</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1385 x 3500, Træhus</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1385 x 3500, Træhus (Trappe)</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1425x 3500 (Trappe)</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1425x 3501</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1550 x 3500</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1550 x 3501</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1550 x 4050</t>
+  </si>
+  <si>
+    <t>3120008 Vinduer, Træ-Alu Fast 1550 x 4400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -85,6 +217,20 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,14 +250,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{44DFFE1E-F6B3-424C-B91D-D781BA124ED4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,175 +582,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="43" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5">
+        <v>4200</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>4200</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4300</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D6" s="5">
+        <v>5500</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>4000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1.7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D7" s="5">
+        <v>5500</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>5500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6800</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1625</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1950</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2450</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2850</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4075</v>
+      </c>
+      <c r="E20" s="7">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>5500</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3.21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5900</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2900</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>0.87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2550</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1950</v>
+      </c>
+      <c r="E26" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5">
+        <v>14300</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5">
+        <v>14300</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5">
+        <v>15900</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5">
+        <v>19700</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5">
+        <v>20300</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20300</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5">
+        <v>20300</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="5">
+        <v>20900</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20900</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5">
+        <v>22700</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5">
+        <v>22700</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="261" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="261" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>